--- a/out/Frisksnit/Glostrup Hospital (GLO), Centralkøkken - Økologi statistik juli 2024.xlsx
+++ b/out/Frisksnit/Glostrup Hospital (GLO), Centralkøkken - Økologi statistik juli 2024.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -445,7 +445,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% containsProduct,</t>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
+  </si>
+  <si>
+    <t>1% filler,19% containsTotalMass,19% containsSingleMass,19% containsProduct,19% SingleMassHeader,19% TotalMassHeader,</t>
   </si>
   <si>
     <t xml:space="preserve">VARENR, </t>
@@ -501,7 +504,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,7 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -581,6 +584,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF747D9B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6B281"/>
       </patternFill>
     </fill>
     <fill>
@@ -617,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -679,31 +687,32 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2396,7 +2405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931CC469-D67F-4878-9393-5432DACE4D6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D44C9AA-4B07-4BDF-B132-E592C2F11630}">
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
@@ -2766,6 +2775,9 @@
       <c r="G16" s="26">
         <v>952.56</v>
       </c>
+      <c r="H16" s="37" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="28" t="s">
@@ -3080,7 +3092,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -3639,7 +3651,7 @@
       <c r="B54" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="37" t="s">
         <v>118</v>
       </c>
       <c r="D54" s="24">
@@ -3663,7 +3675,7 @@
       <c r="B55" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="37" t="s">
         <v>120</v>
       </c>
       <c r="D55" s="24">
@@ -3770,11 +3782,11 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="37">
+      <c r="F60" s="38">
         <f>+F57/F59</f>
         <v>0.7464539007092199</v>
       </c>
-      <c r="G60" s="37">
+      <c r="G60" s="38">
         <f>+G57/G59</f>
         <v>0.6800873134705259</v>
       </c>
@@ -3799,7 +3811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2886D263-362D-4CA2-A1C8-E83101319990}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF72D222-0C36-471C-BCD2-F87184DEE175}">
   <dimension ref="A2:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
@@ -3864,20 +3876,20 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="45" t="s">
+      <c r="E6" s="46" t="s">
         <v>145</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>146</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -3887,19 +3899,19 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="44" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
-      <c r="E7" s="46">
-        <v>2</v>
-      </c>
-      <c r="F7" s="48">
+      <c r="E7" s="47">
+        <v>2</v>
+      </c>
+      <c r="F7" s="49">
         <f>++D7*E7</f>
         <v>2</v>
       </c>
@@ -3911,19 +3923,19 @@
       <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="44" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="47">
         <v>14</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="49">
         <f ref="F8:F30" t="shared" si="0">++D8*E8</f>
         <v>14</v>
       </c>
@@ -3935,19 +3947,19 @@
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="44" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="0">
         <v>5</v>
       </c>
-      <c r="E9" s="46">
-        <v>1</v>
-      </c>
-      <c r="F9" s="48">
+      <c r="E9" s="47">
+        <v>1</v>
+      </c>
+      <c r="F9" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3959,19 +3971,19 @@
       <c r="A10" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="0">
         <v>1</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="47">
         <v>4</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="49">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3983,19 +3995,19 @@
       <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="44" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="0">
         <v>1</v>
       </c>
-      <c r="E11" s="46">
-        <v>2</v>
-      </c>
-      <c r="F11" s="48">
+      <c r="E11" s="47">
+        <v>2</v>
+      </c>
+      <c r="F11" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4007,19 +4019,19 @@
       <c r="A12" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="0">
         <v>5</v>
       </c>
-      <c r="E12" s="46">
-        <v>1</v>
-      </c>
-      <c r="F12" s="48">
+      <c r="E12" s="47">
+        <v>1</v>
+      </c>
+      <c r="F12" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4031,19 +4043,19 @@
       <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="44" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="0">
         <v>5</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="47">
         <v>6</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="49">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -4055,19 +4067,19 @@
       <c r="A14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="44" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="0">
         <v>1</v>
       </c>
-      <c r="E14" s="46">
-        <v>2</v>
-      </c>
-      <c r="F14" s="48">
+      <c r="E14" s="47">
+        <v>2</v>
+      </c>
+      <c r="F14" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4079,19 +4091,19 @@
       <c r="A15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="44" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="0">
         <v>1</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="47">
         <v>16</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="49">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -4103,19 +4115,19 @@
       <c r="A16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="44" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="0">
         <v>5</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="47">
         <v>4</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="49">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -4127,19 +4139,19 @@
       <c r="A17" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="44" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="0">
         <v>1</v>
       </c>
-      <c r="E17" s="46">
-        <v>2</v>
-      </c>
-      <c r="F17" s="48">
+      <c r="E17" s="47">
+        <v>2</v>
+      </c>
+      <c r="F17" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4151,19 +4163,19 @@
       <c r="A18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="44" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="0">
         <v>1</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="47">
         <v>62</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="49">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
@@ -4175,19 +4187,19 @@
       <c r="A19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="44" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="0">
         <v>1</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="47">
         <v>10</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="49">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4199,19 +4211,19 @@
       <c r="A20" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="44" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="0">
         <v>5</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="47">
         <v>4</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="49">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -4223,19 +4235,19 @@
       <c r="A21" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="44" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="0">
         <v>1</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="47">
         <v>3</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="49">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4247,19 +4259,19 @@
       <c r="A22" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="0">
         <v>1</v>
       </c>
-      <c r="E22" s="46">
-        <v>2</v>
-      </c>
-      <c r="F22" s="48">
+      <c r="E22" s="47">
+        <v>2</v>
+      </c>
+      <c r="F22" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4271,19 +4283,19 @@
       <c r="A23" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="44" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="0">
         <v>5</v>
       </c>
-      <c r="E23" s="46">
-        <v>1</v>
-      </c>
-      <c r="F23" s="48">
+      <c r="E23" s="47">
+        <v>1</v>
+      </c>
+      <c r="F23" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4295,19 +4307,19 @@
       <c r="A24" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="44" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="0">
         <v>1</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="47">
         <v>10</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="49">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4319,19 +4331,19 @@
       <c r="A25" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="44" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="0">
         <v>1</v>
       </c>
-      <c r="E25" s="46">
-        <v>1</v>
-      </c>
-      <c r="F25" s="48">
+      <c r="E25" s="47">
+        <v>1</v>
+      </c>
+      <c r="F25" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4343,19 +4355,19 @@
       <c r="A26" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="44" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="0">
         <v>1</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="47">
         <v>4</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="49">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4367,19 +4379,19 @@
       <c r="A27" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="44" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="0">
         <v>3</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="47">
         <v>10</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="49">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -4391,19 +4403,19 @@
       <c r="A28" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="44" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="0">
         <v>1</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="47">
         <v>78</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="49">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
@@ -4415,19 +4427,19 @@
       <c r="A29" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="0">
         <v>1</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="47">
         <v>100</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="49">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4439,19 +4451,19 @@
       <c r="A30" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="44" t="s">
         <v>69</v>
       </c>
       <c r="D30" s="0">
         <v>1</v>
       </c>
-      <c r="E30" s="46">
-        <v>2</v>
-      </c>
-      <c r="F30" s="48">
+      <c r="E30" s="47">
+        <v>2</v>
+      </c>
+      <c r="F30" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4463,15 +4475,15 @@
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="42">
         <v>3070</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="45" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="49">
+      <c r="E31" s="48"/>
+      <c r="F31" s="50">
         <f>SUM(F7:F30)</f>
         <v>429</v>
       </c>
@@ -4489,20 +4501,20 @@
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="42" t="s">
+      <c r="B33" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="C33" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="F33" s="45" t="s">
+      <c r="E33" s="46" t="s">
         <v>145</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>146</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>10</v>
@@ -4512,19 +4524,19 @@
       <c r="A34" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="44" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="0">
         <v>1</v>
       </c>
-      <c r="E34" s="46">
-        <v>2</v>
-      </c>
-      <c r="F34" s="48">
+      <c r="E34" s="47">
+        <v>2</v>
+      </c>
+      <c r="F34" s="49">
         <f ref="F34:F56" t="shared" si="1">++D34*E34</f>
         <v>2</v>
       </c>
@@ -4536,19 +4548,19 @@
       <c r="A35" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="44" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="0">
         <v>1</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="47">
         <v>25</v>
       </c>
-      <c r="F35" s="48">
+      <c r="F35" s="49">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -4560,19 +4572,19 @@
       <c r="A36" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="44" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="0">
         <v>5</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="47">
         <v>12</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F36" s="49">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -4584,19 +4596,19 @@
       <c r="A37" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="44" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="0">
         <v>1</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="47">
         <v>81</v>
       </c>
-      <c r="F37" s="48">
+      <c r="F37" s="49">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
@@ -4608,19 +4620,19 @@
       <c r="A38" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="44" t="s">
         <v>84</v>
       </c>
       <c r="D38" s="0">
         <v>5</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="47">
         <v>13</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="49">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -4632,19 +4644,19 @@
       <c r="A39" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="44" t="s">
         <v>86</v>
       </c>
       <c r="D39" s="0">
         <v>1</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="47">
         <v>73</v>
       </c>
-      <c r="F39" s="48">
+      <c r="F39" s="49">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -4656,19 +4668,19 @@
       <c r="A40" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="44" t="s">
         <v>88</v>
       </c>
       <c r="D40" s="0">
         <v>5</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="47">
         <v>111</v>
       </c>
-      <c r="F40" s="48">
+      <c r="F40" s="49">
         <f t="shared" si="1"/>
         <v>555</v>
       </c>
@@ -4680,19 +4692,19 @@
       <c r="A41" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="44" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="0">
         <v>1</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="47">
         <v>4</v>
       </c>
-      <c r="F41" s="48">
+      <c r="F41" s="49">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -4704,19 +4716,19 @@
       <c r="A42" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="44" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="0">
         <v>5</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="47">
         <v>6</v>
       </c>
-      <c r="F42" s="48">
+      <c r="F42" s="49">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4728,19 +4740,19 @@
       <c r="A43" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="44" t="s">
         <v>95</v>
       </c>
       <c r="D43" s="0">
         <v>1</v>
       </c>
-      <c r="E43" s="46">
-        <v>2</v>
-      </c>
-      <c r="F43" s="48">
+      <c r="E43" s="47">
+        <v>2</v>
+      </c>
+      <c r="F43" s="49">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4752,19 +4764,19 @@
       <c r="A44" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="44" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="0">
         <v>1</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="47">
         <v>4</v>
       </c>
-      <c r="F44" s="48">
+      <c r="F44" s="49">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -4776,19 +4788,19 @@
       <c r="A45" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="44" t="s">
         <v>100</v>
       </c>
       <c r="D45" s="0">
         <v>3</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="47">
         <v>3</v>
       </c>
-      <c r="F45" s="48">
+      <c r="F45" s="49">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -4800,19 +4812,19 @@
       <c r="A46" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="44" t="s">
         <v>102</v>
       </c>
       <c r="D46" s="0">
         <v>5</v>
       </c>
-      <c r="E46" s="46">
-        <v>1</v>
-      </c>
-      <c r="F46" s="48">
+      <c r="E46" s="47">
+        <v>1</v>
+      </c>
+      <c r="F46" s="49">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4824,19 +4836,19 @@
       <c r="A47" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="44" t="s">
         <v>104</v>
       </c>
       <c r="D47" s="0">
         <v>1</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="47">
         <v>9</v>
       </c>
-      <c r="F47" s="48">
+      <c r="F47" s="49">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -4848,19 +4860,19 @@
       <c r="A48" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="44" t="s">
         <v>106</v>
       </c>
       <c r="D48" s="0">
         <v>1</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="47">
         <v>19</v>
       </c>
-      <c r="F48" s="48">
+      <c r="F48" s="49">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -4872,19 +4884,19 @@
       <c r="A49" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="44" t="s">
         <v>108</v>
       </c>
       <c r="D49" s="0">
         <v>1</v>
       </c>
-      <c r="E49" s="46">
-        <v>2</v>
-      </c>
-      <c r="F49" s="48">
+      <c r="E49" s="47">
+        <v>2</v>
+      </c>
+      <c r="F49" s="49">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4896,19 +4908,19 @@
       <c r="A50" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="44" t="s">
         <v>110</v>
       </c>
       <c r="D50" s="0">
         <v>1</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="47">
         <v>43</v>
       </c>
-      <c r="F50" s="48">
+      <c r="F50" s="49">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
@@ -4920,19 +4932,19 @@
       <c r="A51" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="44" t="s">
         <v>112</v>
       </c>
       <c r="D51" s="0">
         <v>5</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="47">
         <v>7</v>
       </c>
-      <c r="F51" s="48">
+      <c r="F51" s="49">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -4944,19 +4956,19 @@
       <c r="A52" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="44" t="s">
         <v>114</v>
       </c>
       <c r="D52" s="0">
         <v>1</v>
       </c>
-      <c r="E52" s="46">
-        <v>5</v>
-      </c>
-      <c r="F52" s="48">
+      <c r="E52" s="47">
+        <v>5</v>
+      </c>
+      <c r="F52" s="49">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4968,19 +4980,19 @@
       <c r="A53" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="44" t="s">
         <v>116</v>
       </c>
       <c r="D53" s="0">
         <v>5</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="47">
         <v>21</v>
       </c>
-      <c r="F53" s="48">
+      <c r="F53" s="49">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
@@ -4992,19 +5004,19 @@
       <c r="A54" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="44" t="s">
         <v>118</v>
       </c>
       <c r="D54" s="0">
         <v>1</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="47">
         <v>7</v>
       </c>
-      <c r="F54" s="48">
+      <c r="F54" s="49">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -5016,19 +5028,19 @@
       <c r="A55" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="44" t="s">
         <v>120</v>
       </c>
       <c r="D55" s="0">
         <v>5</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="47">
         <v>24</v>
       </c>
-      <c r="F55" s="48">
+      <c r="F55" s="49">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -5040,19 +5052,19 @@
       <c r="A56" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="44" t="s">
         <v>123</v>
       </c>
       <c r="D56" s="0">
         <v>1</v>
       </c>
-      <c r="E56" s="46">
+      <c r="E56" s="47">
         <v>3</v>
       </c>
-      <c r="F56" s="48">
+      <c r="F56" s="49">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5064,15 +5076,15 @@
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="41">
+      <c r="B57" s="42">
         <v>3070</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="45" t="s">
         <v>71</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="49">
+      <c r="E57" s="48"/>
+      <c r="F57" s="50">
         <f>SUM(F34:F56)</f>
         <v>1263</v>
       </c>
